--- a/Lab02/Lab02.xlsx
+++ b/Lab02/Lab02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472CF23-9B2F-476B-A6D8-A4433B7E69E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CBCE0-7D74-4D02-9FB5-D797386ED1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,19 +490,16 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3949,6 +3949,138 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384138</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569422</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218FFE6F-B4F0-414C-91EC-DEFDB3D02C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3907267" y="4004534"/>
+          <a:ext cx="2023049" cy="1065454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59548</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>21241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C72CAD-ED94-4CA7-8528-7A28859443A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="11056620"/>
+          <a:ext cx="3534268" cy="2048161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>458322</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD68015B-21EE-4F69-B7CA-579FA50661C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3535680" y="3268980"/>
+          <a:ext cx="2271882" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4217,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4231,11 +4363,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4543,11 +4675,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -4622,13 +4754,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
@@ -5136,14 +5268,14 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="49" t="s">
+      <c r="I51" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
     </row>
     <row r="52" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
@@ -5166,14 +5298,14 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="50" t="s">
+      <c r="I52" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
@@ -5220,18 +5352,18 @@
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
@@ -5297,6 +5429,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I52:N52"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="D55:H55"/>
     <mergeCell ref="A1:C1"/>
@@ -5305,8 +5439,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
